--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_444__Reeval_Halton_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_444__Reeval_Halton_Modell_1.1.xlsx
@@ -5987,16 +5987,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>51.27097320556641</c:v>
+                  <c:v>51.27097702026367</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55.88293838500977</c:v>
+                  <c:v>55.8829345703125</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.6969427466392517</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36.00108337402344</c:v>
+                  <c:v>36.00107574462891</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>76.86043548583984</c:v>
@@ -6005,7 +6005,7 @@
                   <c:v>0.6969427466392517</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.93424797058105</c:v>
+                  <c:v>28.93424034118652</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.6969427466392517</c:v>
@@ -6014,10 +6014,10 @@
                   <c:v>0.6969427466392517</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.638755798339844</c:v>
+                  <c:v>8.638757705688477</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>52.09676361083984</c:v>
+                  <c:v>52.09675216674805</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.6969427466392517</c:v>
@@ -6029,7 +6029,7 @@
                   <c:v>50.37205123901367</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44.19190979003906</c:v>
+                  <c:v>44.19192504882812</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.6969427466392517</c:v>
@@ -6062,7 +6062,7 @@
                   <c:v>0.6969427466392517</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>17.88225555419922</c:v>
+                  <c:v>17.88225936889648</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>53.57786560058594</c:v>
@@ -6080,7 +6080,7 @@
                   <c:v>0.6969427466392517</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44.2330436706543</c:v>
+                  <c:v>44.23303604125977</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.6969427466392517</c:v>
@@ -6098,7 +6098,7 @@
                   <c:v>0.6969427466392517</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.392010688781738</c:v>
+                  <c:v>5.392011642456055</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.6969427466392517</c:v>
@@ -6122,7 +6122,7 @@
                   <c:v>0.6969427466392517</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.079434871673584</c:v>
+                  <c:v>4.079430103302002</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>0.6969427466392517</c:v>
@@ -6143,19 +6143,19 @@
                   <c:v>45.59720993041992</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>47.66521835327148</c:v>
+                  <c:v>47.66522598266602</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>0.6969427466392517</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>51.66251373291016</c:v>
+                  <c:v>51.66249465942383</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>0.6969427466392517</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>44.24056625366211</c:v>
+                  <c:v>44.24056243896484</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>0.6969427466392517</c:v>
@@ -6164,7 +6164,7 @@
                   <c:v>0.6969427466392517</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>50.88423156738281</c:v>
+                  <c:v>50.88424682617188</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>0.6969427466392517</c:v>
@@ -6179,16 +6179,16 @@
                   <c:v>0.6969427466392517</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>44.13016128540039</c:v>
+                  <c:v>44.13017272949219</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>0.6969427466392517</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>44.95174789428711</c:v>
+                  <c:v>44.95174407958984</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>88.42253875732422</c:v>
+                  <c:v>88.42256164550781</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>44.41289520263672</c:v>
@@ -6200,7 +6200,7 @@
                   <c:v>38.25884246826172</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>46.21146011352539</c:v>
+                  <c:v>46.21147537231445</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>44.71982192993164</c:v>
@@ -6218,10 +6218,10 @@
                   <c:v>0.6969427466392517</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>19.43557739257812</c:v>
+                  <c:v>19.43558311462402</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>28.70891952514648</c:v>
+                  <c:v>28.70892524719238</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>0.6969427466392517</c:v>
@@ -6230,7 +6230,7 @@
                   <c:v>19.62681198120117</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>50.44853210449219</c:v>
+                  <c:v>50.44852828979492</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>0.6969427466392517</c:v>
@@ -6248,7 +6248,7 @@
                   <c:v>0.6969427466392517</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>44.5111083984375</c:v>
+                  <c:v>44.51110458374023</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>0.6969427466392517</c:v>
@@ -6263,7 +6263,7 @@
                   <c:v>0.6969427466392517</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>39.34354019165039</c:v>
+                  <c:v>39.34354782104492</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>0.6969427466392517</c:v>
@@ -6272,16 +6272,16 @@
                   <c:v>0.6969427466392517</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>43.60737609863281</c:v>
+                  <c:v>43.60737228393555</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>26.9611930847168</c:v>
+                  <c:v>26.96120071411133</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>44.98944473266602</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>28.8663215637207</c:v>
+                  <c:v>28.86631965637207</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>0.6969427466392517</c:v>
@@ -6979,7 +6979,7 @@
         <v>51.7318</v>
       </c>
       <c r="F2">
-        <v>51.27097320556641</v>
+        <v>51.27097702026367</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -7011,7 +7011,7 @@
         <v>29.3754</v>
       </c>
       <c r="F3">
-        <v>55.88293838500977</v>
+        <v>55.8829345703125</v>
       </c>
       <c r="G3">
         <v>93</v>
@@ -7075,7 +7075,7 @@
         <v>42.1438</v>
       </c>
       <c r="F5">
-        <v>36.00108337402344</v>
+        <v>36.00107574462891</v>
       </c>
       <c r="G5">
         <v>93</v>
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>28.93424797058105</v>
+        <v>28.93424034118652</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7231,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>8.638755798339844</v>
+        <v>8.638757705688477</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7251,7 +7251,7 @@
         <v>51.4297</v>
       </c>
       <c r="F12">
-        <v>52.09676361083984</v>
+        <v>52.09675216674805</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7331,7 +7331,7 @@
         <v>41.5994</v>
       </c>
       <c r="F16">
-        <v>44.19190979003906</v>
+        <v>44.19192504882812</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>17.88225555419922</v>
+        <v>17.88225936889648</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>45.5077</v>
       </c>
       <c r="F33">
-        <v>44.2330436706543</v>
+        <v>44.23303604125977</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>5.392010688781738</v>
+        <v>5.392011642456055</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>41.7163</v>
       </c>
       <c r="F47">
-        <v>4.079434871673584</v>
+        <v>4.079430103302002</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>57.1504</v>
       </c>
       <c r="F54">
-        <v>47.66521835327148</v>
+        <v>47.66522598266602</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>48.3275</v>
       </c>
       <c r="F56">
-        <v>51.66251373291016</v>
+        <v>51.66249465942383</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>43.4308</v>
       </c>
       <c r="F58">
-        <v>44.24056625366211</v>
+        <v>44.24056243896484</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>46.8311</v>
       </c>
       <c r="F61">
-        <v>50.88423156738281</v>
+        <v>50.88424682617188</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>41.9705</v>
       </c>
       <c r="F66">
-        <v>44.13016128540039</v>
+        <v>44.13017272949219</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>45.5274</v>
       </c>
       <c r="F68">
-        <v>44.95174789428711</v>
+        <v>44.95174407958984</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>49.3915</v>
       </c>
       <c r="F69">
-        <v>88.42253875732422</v>
+        <v>88.42256164550781</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>48.0588</v>
       </c>
       <c r="F73">
-        <v>46.21146011352539</v>
+        <v>46.21147537231445</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>46.1463</v>
       </c>
       <c r="F79">
-        <v>19.43557739257812</v>
+        <v>19.43558311462402</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>38.3322</v>
       </c>
       <c r="F80">
-        <v>28.70891952514648</v>
+        <v>28.70892524719238</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>55.7741</v>
       </c>
       <c r="F83">
-        <v>50.44853210449219</v>
+        <v>50.44852828979492</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>35.4484</v>
       </c>
       <c r="F89">
-        <v>44.5111083984375</v>
+        <v>44.51110458374023</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8891,7 +8891,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>39.34354019165039</v>
+        <v>39.34354782104492</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -8951,7 +8951,7 @@
         <v>46.3967</v>
       </c>
       <c r="F97">
-        <v>43.60737609863281</v>
+        <v>43.60737228393555</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -8971,7 +8971,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>26.9611930847168</v>
+        <v>26.96120071411133</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -9011,7 +9011,7 @@
         <v>38.2511</v>
       </c>
       <c r="F100">
-        <v>28.8663215637207</v>
+        <v>28.86631965637207</v>
       </c>
     </row>
     <row r="101" spans="1:6">
